--- a/example.xlsx
+++ b/example.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
@@ -663,6 +663,299 @@
         </is>
       </c>
     </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Server Name</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Response Time (ms)</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>google.com</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Up</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>0.09489893913269043</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>microsoft.com</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Down</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>gregbelanger.com</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Up</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>0.05644416809082031</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>monkeyblslkwew.com</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Down</t>
+        </is>
+      </c>
+      <c r="C24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>ausdcdcgl02.global.cbre.net</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Up</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>0.2634408473968506</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>ausdcdcin03.in.ap.cbre.net</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Up</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>0.2743227481842041</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>ausdcdcnz03.nz.ap.cbre.net</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Up</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>0.2632091045379639</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>ausdcdctw02.tw.ap.cbre.net</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Up</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>0.2645881175994873</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>ausyxsqlp110.ap.cbre.net</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Down</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>brserv006.cbre.local</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Up</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>0.2237977981567383</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>brserv029.cbre.local</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Up</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>0.2264730930328369</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>brserv203.cbre.local</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Up</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>0.2306320667266846</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>corazapp21-1-1.heery.net</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Up</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>0.1419999599456787</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>corazapp31-1-1.heery.net</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Up</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>0.1422510147094727</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>corazdc001.heery.net</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Up</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>0.1419980525970459</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>corazdc002.heery.net</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Up</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>0.1459541320800781</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>cordc0018.heery.net</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Up</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>0.1182310581207275</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>cr-prnt.coldriver.local</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Down</t>
+        </is>
+      </c>
+      <c r="C38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>demo.sequentraqa.com</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Down</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
